--- a/data/income_statement/2digits/size/23_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/23_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>23-Manufacture of other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>23-Manufacture of other non-metallic mineral products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,884 +841,999 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5215236.53683</v>
+        <v>5392558.50779</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6101284.511630001</v>
+        <v>6461949.018540001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8512165.05067</v>
+        <v>8696902.45232</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9638479.055740001</v>
+        <v>10173024.00185</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12403674.75132</v>
+        <v>12952525.83098</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14587633.93847</v>
+        <v>15171398.51821</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15313464.52825</v>
+        <v>16362625.85653</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16374527.04263</v>
+        <v>17442167.15361</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>18783401.04582</v>
+        <v>19698394.59132</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>28570112.03893</v>
+        <v>28735324.63712</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>24629118.00121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25039157.19161</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31607619.906</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4638756.08662</v>
+        <v>4800911.59497</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5410310.226360001</v>
+        <v>5752259.86792</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7685312.56434</v>
+        <v>7846494.63666</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8591039.42891</v>
+        <v>9044843.713059999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11203796.21368</v>
+        <v>11654320.21251</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13284892.9454</v>
+        <v>13742048.35622</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>14025714.43811</v>
+        <v>14910279.07207</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15088327.9906</v>
+        <v>16012358.83705</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>17206825.85119</v>
+        <v>18021185.87577</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25644566.03083</v>
+        <v>25657842.98464</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21417204.87385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21666774.04615</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>27787045.811</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>484644.61259</v>
+        <v>499891.6004000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>586110.23644</v>
+        <v>601937.32254</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>703916.0692200001</v>
+        <v>721538.92009</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>841982.2222800001</v>
+        <v>915211.6929299999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1021987.57567</v>
+        <v>1097002.95171</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1061162.6604</v>
+        <v>1181535.12363</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1046244.50076</v>
+        <v>1188948.03386</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>993098.9095299999</v>
+        <v>1120531.35232</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1229347.55876</v>
+        <v>1294700.73899</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2336812.33691</v>
+        <v>2364764.9018</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2665168.98904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2749580.30998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3118867.122</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>91835.83762000001</v>
+        <v>91755.31242</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>104864.04883</v>
+        <v>107751.82808</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>122936.41711</v>
+        <v>128868.89557</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>205457.40455</v>
+        <v>212968.59586</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>177890.96197</v>
+        <v>201202.66676</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>241578.33267</v>
+        <v>247815.03836</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>241505.58938</v>
+        <v>263398.7506</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>293100.1425</v>
+        <v>309276.96424</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>347227.63587</v>
+        <v>382507.9765599999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>588733.67119</v>
+        <v>712716.7506799999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>546744.1383199999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>622802.83548</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>701706.973</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>80575.33494</v>
+        <v>100491.34658</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>106458.11671</v>
+        <v>128608.7566</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>122412.70345</v>
+        <v>134530.3436</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>145156.06162</v>
+        <v>155975.04094</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>191734.91539</v>
+        <v>197525.65597</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>253527.1508</v>
+        <v>259738.1947</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>234717.47657</v>
+        <v>278343.73074</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>236959.54384</v>
+        <v>264331.92808</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>390456.84706</v>
+        <v>272191.42029</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>962486.37168</v>
+        <v>989622.3230399999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>486386.21812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>516636.5042800001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>629087.383</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>20921.84803</v>
+        <v>22535.51707</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>24124.41536</v>
+        <v>24361.78325</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>30168.71145</v>
+        <v>29820.28082</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>42845.85595</v>
+        <v>44735.68487</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>42475.29644</v>
+        <v>45297.97981</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>60598.75851</v>
+        <v>61358.23540999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>63276.36569999999</v>
+        <v>91788.11507</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>82389.09106999999</v>
+        <v>89772.41667000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>217998.87482</v>
+        <v>94551.86594999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>622708.9430799999</v>
+        <v>626947.24393</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>205021.30405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>194315.00909</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>292558.976</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>53073.90736</v>
+        <v>71375.41033000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>74785.52312</v>
+        <v>96767.91191</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>83756.21415</v>
+        <v>95565.33172999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>94552.38327999999</v>
+        <v>99884.47838</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>136795.06267</v>
+        <v>137891.7513</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>177544.07048</v>
+        <v>178546.43437</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>148038.92449</v>
+        <v>162571.08425</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>132500.08402</v>
+        <v>151380.69673</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>152172.18585</v>
+        <v>155235.14426</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>273985.11439</v>
+        <v>286512.3351799999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>225327.19392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>258673.4239</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>257459.335</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6579.579549999999</v>
+        <v>6580.41918</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7548.17823</v>
+        <v>7479.061439999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8487.77785</v>
+        <v>9144.73105</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7757.822389999999</v>
+        <v>11354.87769</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>12464.55628</v>
+        <v>14335.92486</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15384.32181</v>
+        <v>19833.52492</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>23402.18638</v>
+        <v>23984.53142</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>22070.36875</v>
+        <v>23178.81468</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>20285.78639</v>
+        <v>22404.41008</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>65792.31421</v>
+        <v>76162.74393000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>56037.72015000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>63648.07129</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>79069.072</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5134661.201889999</v>
+        <v>5292067.16121</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5994826.39492</v>
+        <v>6333340.261940001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8389752.34722</v>
+        <v>8562372.108719999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9493322.994119998</v>
+        <v>10017048.96091</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12211939.83593</v>
+        <v>12755000.17501</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14334106.78767</v>
+        <v>14911660.32351</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15078747.05168</v>
+        <v>16084282.12579</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16137567.49879</v>
+        <v>17177835.22553</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>18392944.19876</v>
+        <v>19426203.17103</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>27607625.66725</v>
+        <v>27745702.31408</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>24142731.78309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24522520.68733</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30978532.523</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4223358.000499999</v>
+        <v>4331230.29754</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4942998.009379999</v>
+        <v>5223912.7809</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6980659.877850001</v>
+        <v>7115837.93527</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7859015.25826</v>
+        <v>8326182.063189998</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10104535.85583</v>
+        <v>10546863.21073</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11890801.1544</v>
+        <v>12357409.9627</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12485188.77914</v>
+        <v>13245825.2032</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13407573.17973</v>
+        <v>14232644.30657</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>15398220.41912</v>
+        <v>16246724.14747</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23011365.44768</v>
+        <v>23073432.67946</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19905191.91087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20249514.69629</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>25763866.274</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3269244.87626</v>
+        <v>3362591.67231</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3878590.737369999</v>
+        <v>4063542.95782</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5544473.770389999</v>
+        <v>5596744.577969999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6318198.23291</v>
+        <v>6666047.16407</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8000544.972070001</v>
+        <v>8334756.38607</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9530303.61843</v>
+        <v>9868619.01543</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>10025922.50187</v>
+        <v>10596427.59993</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10665096.96048</v>
+        <v>11321209.26779</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>12127566.52559</v>
+        <v>12901800.55559</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>18544598.81334</v>
+        <v>18571176.10229</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15880043.76281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16117522.06028</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>19932026.679</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>444986.41112</v>
+        <v>435782.31865</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>607256.08482</v>
+        <v>612814.25081</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>868887.3231800001</v>
+        <v>838581.46844</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>969277.7765700001</v>
+        <v>992805.71111</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1207378.22464</v>
+        <v>1241781.06477</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1398379.50932</v>
+        <v>1410734.38748</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1556129.17163</v>
+        <v>1641702.76068</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1713969.15901</v>
+        <v>1754268.72267</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2169029.16516</v>
+        <v>2165342.21507</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2574188.5262</v>
+        <v>2513885.03752</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2376209.47638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2365665.13099</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3997658.018</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>496957.5089399999</v>
+        <v>518849.32241</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>434966.21196</v>
+        <v>523670.65576</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>544140.06709</v>
+        <v>646191.85041</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>487808.87762</v>
+        <v>583277.91778</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>884276.5866399999</v>
+        <v>956817.7932999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>922064.4508500001</v>
+        <v>1042050.43962</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>846843.61505</v>
+        <v>950235.7997</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>935340.6214000001</v>
+        <v>1059146.56379</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1021649.28993</v>
+        <v>1083510.49806</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1755667.27105</v>
+        <v>1851719.01848</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1507852.83372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1642713.30253</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1704411.76</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>12169.20418</v>
+        <v>14006.98417</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>22184.97523</v>
+        <v>23884.91651</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>23158.71719</v>
+        <v>34320.03845</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>83730.37116</v>
+        <v>84051.27023000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>12336.07248</v>
+        <v>13507.96659</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>40053.5758</v>
+        <v>36006.12017</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>56293.49059</v>
+        <v>57459.04289000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>93166.43884</v>
+        <v>98019.75232</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>79975.43844</v>
+        <v>96070.87875</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>136910.83709</v>
+        <v>136652.52117</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>141085.83796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>123614.20249</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>129769.817</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>911303.2013899999</v>
+        <v>960836.8636700001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1051828.38554</v>
+        <v>1109427.48104</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1409092.46937</v>
+        <v>1446534.17345</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1634307.73586</v>
+        <v>1690866.89772</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2107403.9801</v>
+        <v>2208136.96428</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2443305.63327</v>
+        <v>2554250.36081</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2593558.27254</v>
+        <v>2838456.92259</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2729994.31906</v>
+        <v>2945190.91896</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2994723.77964</v>
+        <v>3179479.02356</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4596260.21957</v>
+        <v>4672269.63462</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4237539.87222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4273005.99104</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5214666.249</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>616567.93167</v>
+        <v>642645.4831000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>753208.5864699999</v>
+        <v>832463.9554100001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1012462.96965</v>
+        <v>1026560.18527</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1175319.38315</v>
+        <v>1228735.21889</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1421080.33312</v>
+        <v>1475513.41477</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1632867.27772</v>
+        <v>1699641.60538</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1669312.0082</v>
+        <v>1797908.58716</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1765934.84872</v>
+        <v>1830206.93397</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2012542.49961</v>
+        <v>2088396.43007</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2974340.13122</v>
+        <v>2958404.33663</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2756202.57091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2787116.84105</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3058913.937</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4172.027669999999</v>
+        <v>3933.79922</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2638.58422</v>
+        <v>3958.50703</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3408.58278</v>
+        <v>3479.207600000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3183.093269999999</v>
+        <v>3307.874359999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3837.325529999999</v>
+        <v>5415.489800000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4152.91334</v>
+        <v>5650.70732</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4930.320029999999</v>
+        <v>5266.09402</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5465.31332</v>
+        <v>6067.074140000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5601.811070000001</v>
+        <v>5862.70819</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13831.38451</v>
+        <v>13631.69804</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>14495.42163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22175.85643</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>11535.225</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>306107.72864</v>
+        <v>313021.5929700001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>390023.57732</v>
+        <v>409387.59585</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>517627.3456400001</v>
+        <v>524619.56444</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>592896.57427</v>
+        <v>623736.8012999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>735390.4876999999</v>
+        <v>769738.29515</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>839142.5541500001</v>
+        <v>870244.81495</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>823740.7636800001</v>
+        <v>870899.0156</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>849743.44199</v>
+        <v>883173.4176399999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>989138.9664199998</v>
+        <v>1045434.97173</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1607978.30466</v>
+        <v>1595847.24465</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1415707.84678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1406693.15316</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1535096.877</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>306288.17536</v>
+        <v>325690.09091</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>360546.4249300001</v>
+        <v>419117.85253</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>491427.04123</v>
+        <v>498461.41323</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>579239.7156100001</v>
+        <v>601690.5432300001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>681852.5198900001</v>
+        <v>700359.62982</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>789571.8102300001</v>
+        <v>823746.0831100001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>840640.92449</v>
+        <v>921743.47754</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>910726.09341</v>
+        <v>940966.4421900001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1017801.72212</v>
+        <v>1037098.75015</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1352530.44205</v>
+        <v>1348925.39394</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1325999.3025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1358247.83146</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1512281.835</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>294735.26972</v>
+        <v>318191.3805699999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>298619.79907</v>
+        <v>276963.52563</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>396629.49972</v>
+        <v>419973.9881799999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>458988.3527100001</v>
+        <v>462131.67883</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>686323.64698</v>
+        <v>732623.54951</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>810438.3555500001</v>
+        <v>854608.75543</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>924246.2643399999</v>
+        <v>1040548.33543</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>964059.47034</v>
+        <v>1114983.98499</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>982181.28003</v>
+        <v>1091082.59349</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1621920.08835</v>
+        <v>1713865.29799</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1481337.30131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1485889.14999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2155752.312</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>112599.67262</v>
+        <v>138823.30961</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>108566.86471</v>
+        <v>158574.51081</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>132337.97183</v>
+        <v>162857.26737</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>99439.6182</v>
+        <v>146431.00043</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>155862.41509</v>
+        <v>231352.14492</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>171105.58698</v>
+        <v>214828.11269</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>273299.46503</v>
+        <v>356149.16916</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>241179.42766</v>
+        <v>346417.84149</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>267490.6965</v>
+        <v>847262.0374400001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1272205.80414</v>
+        <v>1800031.17389</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>732389.10988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>872435.64222</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1243182.963</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>993.5035899999999</v>
+        <v>870.82525</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1380.47316</v>
+        <v>1274.84204</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6980.012919999999</v>
+        <v>373.21407</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3026.15031</v>
+        <v>3036.02076</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4321.276250000001</v>
+        <v>11816.96755</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3221.57417</v>
+        <v>6189.06439</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3806.68112</v>
+        <v>4891.33646</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1121.81787</v>
+        <v>11019.89016</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3908.93918</v>
+        <v>2984.35737</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2148.93343</v>
+        <v>3189.68057</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2287.99125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5942.41911</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5174.807</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>782.90273</v>
+        <v>12.38226</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>166.1733</v>
+        <v>343.63269</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>4105.46821</v>
+        <v>223.30393</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>271.32174</v>
+        <v>445.76557</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>656.82511</v>
@@ -1829,256 +1845,291 @@
         <v>590.6572199999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>366.44038</v>
+        <v>6972.920349999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>861.09786</v>
+        <v>273356.8935</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>23853.12707</v>
+        <v>343198.3647499999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>57887.83727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>32032.83727</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>6985.739</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>17736.64359</v>
+        <v>20340.54039</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>11388.03687</v>
+        <v>13410.7329</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>14128.09926</v>
+        <v>22416.12226</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>18714.60171</v>
+        <v>25733.89019999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>21046.98922</v>
+        <v>23081.1707</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>26047.81251</v>
+        <v>29062.01515</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>33518.13036</v>
+        <v>40761.11747</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>38389.13172</v>
+        <v>50238.56371</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>42812.13961</v>
+        <v>56867.74778</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>118508.30488</v>
+        <v>165145.06953</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>121781.96815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>225102.77909</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>156691.344</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>31.32011</v>
+        <v>30.32011</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>344.60337</v>
+        <v>332.75337</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>494.4136399999999</v>
+        <v>918.3698499999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>673.0452700000001</v>
+        <v>469.4294299999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>132.82299</v>
+        <v>163.95</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>267.59279</v>
+        <v>422.31709</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>839.1738800000001</v>
+        <v>789.1568300000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>217.6151</v>
+        <v>234.53031</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>516.53542</v>
+        <v>518.13324</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6417.08488</v>
+        <v>6415.27768</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1586.30613</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>595.84317</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>666.7910000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5821.80536</v>
+        <v>6000.740769999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3803.32701</v>
+        <v>4301.10021</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6220.237300000001</v>
+        <v>6138.469639999998</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4366.93629</v>
+        <v>6330.715800000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4536.67592</v>
+        <v>4839.18464</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6861.273689999999</v>
+        <v>6644.416389999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5954.90097</v>
+        <v>7115.804730000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4108.734469999999</v>
+        <v>6230.732230000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>11621.08164</v>
+        <v>7982.412270000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>21780.33623</v>
+        <v>22609.38511</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>23516.95211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22916.83087</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>18355.61</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>565.7484899999999</v>
+        <v>1032.12263</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>738.77676</v>
+        <v>1021.9745</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1371.83441</v>
+        <v>1298.58327</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>697.1978399999999</v>
+        <v>1624.38524</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2041.11808</v>
+        <v>2065.18242</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1698.24292</v>
+        <v>1283.34094</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1084.83983</v>
+        <v>1503.49213</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>711.4362</v>
+        <v>769.65512</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1434.12799</v>
+        <v>1482.06745</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2152.681059999999</v>
+        <v>1884.44274</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5633.71721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5209.631179999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>33932.531</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>58637.72083</v>
+        <v>81563.06432</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>57601.72161</v>
+        <v>98368.21805000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>68765.94512</v>
+        <v>96992.66371000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>42858.68141</v>
+        <v>76210.53020000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>88825.24883</v>
+        <v>152928.41789</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>86871.29743999999</v>
+        <v>120672.43432</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>171940.7378</v>
+        <v>240663.35378</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>127472.30229</v>
+        <v>197173.29162</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>135028.57858</v>
+        <v>373862.97291</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>894978.80927</v>
+        <v>1065050.01977</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>349935.06756</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>401879.01836</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>827801.04</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>701.8077099999999</v>
+        <v>2248.71252</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>269.25822</v>
+        <v>855.5464200000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>460.1299</v>
+        <v>1296.98711</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1437.70164</v>
+        <v>2105.54853</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>3804.924720000001</v>
+        <v>4149.29666</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>7905.28629</v>
+        <v>7925.46179</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>6074.555370000001</v>
+        <v>7445.61362</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2203.717</v>
+        <v>4266.57387</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1721.78989</v>
+        <v>1716.05479</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>29816.7535</v>
+        <v>30059.4666</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>15021.55484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>15721.37047</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10189.886</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>60.98625</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>225.80134</v>
+        <v>171.94756</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>51.49689</v>
@@ -2113,290 +2164,330 @@
       <c r="M34" s="48" t="n">
         <v>87.41317000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1411.914</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>27328.22021</v>
+        <v>26724.60136</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>32824.46929</v>
+        <v>38615.68551</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>29809.66572</v>
+        <v>33197.38817999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>27332.99574</v>
+        <v>30413.72845</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>30270.73263</v>
+        <v>31479.20239</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35735.24722</v>
+        <v>40131.80267</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>49472.63111</v>
+        <v>52371.47955</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>66588.03663</v>
+        <v>69511.48812000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>69508.84643999999</v>
+        <v>128413.83824</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>172482.4481</v>
+        <v>162412.14142</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>154650.30219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>162947.49953</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>181973.301</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>101457.8025</v>
+        <v>120709.14962</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>77637.12931</v>
+        <v>111516.10971</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>119835.64516</v>
+        <v>147374.10427</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>88297.81602</v>
+        <v>130737.97634</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>164837.79715</v>
+        <v>230218.48863</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>136006.68538</v>
+        <v>168168.10779</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>233814.51081</v>
+        <v>370959.49196</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>200638.45705</v>
+        <v>308671.38042</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>194371.29206</v>
+        <v>532317.07768</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1064531.1961</v>
+        <v>1296330.21007</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>491474.14715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>549852.5334200001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>998708.035</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1265.39065</v>
+        <v>1126.59157</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>925.7731900000001</v>
+        <v>767.79608</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1721.11682</v>
+        <v>1738.44748</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2109.86286</v>
+        <v>3151.85502</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1730.05144</v>
+        <v>1715.4239</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3710.43335</v>
+        <v>3738.11221</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3304.56769</v>
+        <v>3819.33612</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2924.21777</v>
+        <v>2517.14042</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4047.86413</v>
+        <v>3373.3682</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8554.973550000001</v>
+        <v>8429.32727</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4161.73421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4486.40429</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7712.441</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>32618.23512</v>
+        <v>34433.57914</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>18143.32757</v>
+        <v>31148.87097</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>20544.18734</v>
+        <v>23945.705</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>29050.32978</v>
+        <v>42358.06918999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>37411.65328</v>
+        <v>37661.18576</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>28929.00874</v>
+        <v>31625.45918</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>47005.98716</v>
+        <v>53858.23304000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36718.83921</v>
+        <v>51761.15702999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>27966.54896</v>
+        <v>30683.85594999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>102063.26671</v>
+        <v>101765.46469</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>93905.66124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>107256.46782</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>93592.14</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>663.9230600000001</v>
+        <v>93.84620999999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>95.35162</v>
+        <v>2422.83579</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1181.8701</v>
+        <v>1139.65115</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>85.91588</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>420.24001</v>
+        <v>485.60483</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>763.87075</v>
+        <v>760.5903199999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1057.00905</v>
+        <v>1015.99009</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>138.25171</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>798.48961</v>
+        <v>785.0733299999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2527.50131</v>
+        <v>975.06303</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>283.07677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>274.67672</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>29853.962</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>57783.83124</v>
+        <v>71816.72992</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>46303.46991</v>
+        <v>58837.24017</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>83938.24161999999</v>
+        <v>106016.09003</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>38353.25149</v>
+        <v>63997.97939</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>107307.56876</v>
+        <v>173760.38775</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>76402.62434000001</v>
+        <v>104918.05967</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>159501.70273</v>
+        <v>284106.94269</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>139848.67254</v>
+        <v>224538.5973</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>143899.7467</v>
+        <v>474631.65374</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>859154.79851</v>
+        <v>1089693.33883</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>313159.38973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>359626.85788</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>793075.884</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>512.02482</v>
+        <v>3712.10509</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>736.4075</v>
+        <v>1221.37553</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>786.43187</v>
+        <v>1404.06522</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1295.73898</v>
+        <v>1833.16163</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>5586.125019999999</v>
+        <v>5926.109210000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>9074.742819999999</v>
+        <v>9262.092779999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>7558.48077</v>
+        <v>8792.674489999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2941.44792</v>
+        <v>4048.79028</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1596.4636</v>
+        <v>1568.00162</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>31175.30876</v>
+        <v>31210.42837999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>13757.53014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>14044.91157</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10852.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.60448</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>24.60891</v>
+        <v>9.76122</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>482.54671</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8609.793129999998</v>
+        <v>9521.693210000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11408.19061</v>
+        <v>17108.22995</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11663.79741</v>
+        <v>13130.14539</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>17402.71703</v>
+        <v>19310.99523</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12376.36765</v>
+        <v>10663.98619</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17126.00538</v>
+        <v>17863.79363</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15385.48309</v>
+        <v>19365.03521</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>18060.18902</v>
+        <v>25660.6048</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>16062.17906</v>
+        <v>21275.12484</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>61051.36620999999</v>
+        <v>64252.60681999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>65724.20835</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>63680.66843</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>63621.537</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>167984.71392</v>
+        <v>188575.28022</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>127231.91437</v>
+        <v>156194.57589</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>172893.101</v>
+        <v>226612.21181</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>226876.69461</v>
+        <v>256603.41016</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>265502.50759</v>
+        <v>295426.23447</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>329973.57261</v>
+        <v>383677.57861</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>404536.56197</v>
+        <v>478875.34502</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>461361.20239</v>
+        <v>566084.7775600001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>512873.0564299999</v>
+        <v>583439.2648400001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1166068.70297</v>
+        <v>1391096.46031</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1072439.8559</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1224449.06803</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>997000.187</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>155709.05634</v>
+        <v>166135.26181</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>117701.95996</v>
+        <v>129677.5844</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>157414.47548</v>
+        <v>167063.71736</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>207839.7331</v>
+        <v>234237.6112</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>234645.11966</v>
+        <v>264775.1894</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>306727.06628</v>
+        <v>362248.09999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>377756.54958</v>
+        <v>441710.3758400001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>425452.06982</v>
+        <v>532263.5605199999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>472190.90986</v>
+        <v>548758.06883</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1065277.95161</v>
+        <v>1190880.4482</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>973815.86125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1053727.57094</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>906630.5379999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>12275.65758</v>
+        <v>22440.01841</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>9529.95441</v>
+        <v>26516.99149</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>15478.62552</v>
+        <v>59548.49445000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>19036.96151</v>
+        <v>22365.79896</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>30857.38793</v>
+        <v>30651.04507</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>23246.50633</v>
+        <v>21429.47862</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>26780.01239</v>
+        <v>37164.96917999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>35909.13257</v>
+        <v>33821.21703999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>40682.14657</v>
+        <v>34681.19601</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>100790.75136</v>
+        <v>200216.01211</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>98623.99464999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>170721.49709</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>90369.649</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>137892.42592</v>
+        <v>147730.26034</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>202317.6201</v>
+        <v>167827.35084</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>236238.72539</v>
+        <v>208844.93947</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>243253.46028</v>
+        <v>221221.29276</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>411845.7573300001</v>
+        <v>438330.97133</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>515563.68454</v>
+        <v>517591.1817200001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>559194.65659</v>
+        <v>546862.66761</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>543239.23856</v>
+        <v>586645.6685</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>542427.62804</v>
+        <v>822588.28841</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>663525.9934200001</v>
+        <v>826469.8014999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>649812.4081400001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>584023.19076</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1403227.053</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>71168.31454000001</v>
+        <v>71373.70783</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>59831.98147</v>
+        <v>74649.42276999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>84156.49892</v>
+        <v>69350.48221</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>90024.28809999999</v>
+        <v>98267.35287999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>99535.42495</v>
+        <v>170414.28149</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>116689.82658</v>
+        <v>138602.7556</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>181993.3157</v>
+        <v>201904.61652</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>144892.73779</v>
+        <v>176618.04856</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>228985.73609</v>
+        <v>202427.59466</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>405267.36754</v>
+        <v>433083.19521</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>304774.28589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>295326.09494</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>450759.152</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2529.62988</v>
+        <v>1363.89343</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1135.2274</v>
+        <v>2583.46661</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>838.96875</v>
+        <v>4771.30069</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1134.58994</v>
+        <v>1929.41086</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2501.57641</v>
+        <v>2546.3811</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2464.63084</v>
+        <v>2327.91795</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>781.52712</v>
+        <v>1649.00376</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1836.47921</v>
+        <v>8335.730809999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3634.97462</v>
+        <v>2005.74601</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8132.344099999999</v>
+        <v>8176.099810000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4039.13672</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5016.71733</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6243.205</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>68638.68466</v>
+        <v>70009.8144</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>58696.75407</v>
+        <v>72065.95616</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>83317.53017</v>
+        <v>64579.18152</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>88889.69816</v>
+        <v>96337.94202</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>97033.84853999999</v>
+        <v>167867.90039</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>114225.19574</v>
+        <v>136274.83765</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>181211.78858</v>
+        <v>200255.61276</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>143056.25858</v>
+        <v>168282.31775</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>225350.76147</v>
+        <v>200421.84865</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>397135.02344</v>
+        <v>424907.0954</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>300735.14917</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>290309.37761</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>444515.947</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>57184.90539</v>
+        <v>111768.41932</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>59229.43019000001</v>
+        <v>116476.03328</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>221221.174</v>
+        <v>292541.2306599999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>64112.45003</v>
+        <v>89322.969</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>89372.04519</v>
+        <v>108862.78574</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>183891.05792</v>
+        <v>190521.23142</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>125318.40164</v>
+        <v>150877.9309</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>223752.72639</v>
+        <v>254807.05512</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>161938.35658</v>
+        <v>176113.02048</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>341646.8377</v>
+        <v>324390.91521</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>268387.6839600001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>327622.52297</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>348896.605</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>11804.4622</v>
+        <v>66759.55804</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7867.7909</v>
+        <v>66045.11194</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7555.160100000001</v>
+        <v>57855.7396</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>7806.192319999999</v>
+        <v>31890.5324</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>19468.83523</v>
+        <v>21183.89505</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>21387.63297</v>
+        <v>49689.76177</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>24505.55387</v>
+        <v>34813.10991</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>27126.77882</v>
+        <v>43065.22985</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>23162.87332</v>
+        <v>33166.21092</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>32085.12671</v>
+        <v>45012.20561</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>67617.32121000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>102892.35678</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>91751.455</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3725.6367</v>
+        <v>3933.964309999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9785.472810000001</v>
+        <v>9651.1888</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4236.02453</v>
+        <v>6865.53966</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2184.70226</v>
+        <v>2566.9204</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>12237.68301</v>
+        <v>12532.1089</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9578.812679999999</v>
+        <v>9713.3462</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9871.601429999999</v>
+        <v>11490.12888</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5482.20365</v>
+        <v>7159.20399</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9029.73214</v>
+        <v>9094.01916</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14217.49383</v>
+        <v>14436.3883</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>38613.26736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>20041.14224</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>12238.103</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41654.80649</v>
+        <v>41074.89697</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>41576.16648</v>
+        <v>40779.73254</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>209429.98937</v>
+        <v>227819.9514</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>54121.55544999999</v>
+        <v>54865.51620000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57665.52695</v>
+        <v>75146.78179000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>152924.61227</v>
+        <v>131118.12345</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>90941.24634</v>
+        <v>104574.69211</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>191143.74392</v>
+        <v>204582.62128</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>129745.75112</v>
+        <v>133852.7904</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>295344.21716</v>
+        <v>264942.3213</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>162157.09539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>204689.02395</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>244907.047</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>151875.83507</v>
+        <v>107335.54885</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>202920.17138</v>
+        <v>126000.74033</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>99174.05031000001</v>
+        <v>-14345.80898000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>269165.29835</v>
+        <v>230165.67664</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>422009.13709</v>
+        <v>499882.46708</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>448362.4532</v>
+        <v>465672.7059</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>615869.57065</v>
+        <v>597889.35323</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>464379.24996</v>
+        <v>508456.6619400001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>609475.00755</v>
+        <v>848902.86259</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>727146.52326</v>
+        <v>935162.0815</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>686199.01007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>551726.7627300001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1505089.6</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>40151.35206</v>
+        <v>47702.74003</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>48482.00309</v>
+        <v>54830.10720000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>64935.54857</v>
+        <v>72705.80834</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>66095.04257999999</v>
+        <v>69263.43124000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>89029.18538999998</v>
+        <v>96612.03178</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>104293.99352</v>
+        <v>108644.5662</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>121668.18946</v>
+        <v>130235.73307</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>111365.53989</v>
+        <v>125407.56581</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>122620.09675</v>
+        <v>136955.43676</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>219511.11065</v>
+        <v>227145.88512</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>204528.30931</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>211552.83063</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>307206.176</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>111724.48301</v>
+        <v>59632.80882</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>154438.16829</v>
+        <v>71170.63312999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>34238.50174</v>
+        <v>-87051.61731999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>203070.25577</v>
+        <v>160902.2454</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>332979.9517</v>
+        <v>403270.4353</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>344068.45968</v>
+        <v>357028.1397000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>494201.38119</v>
+        <v>467653.62016</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>353013.71007</v>
+        <v>383049.09613</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>486854.9108</v>
+        <v>711947.4258300001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>507635.41261</v>
+        <v>708016.19638</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>481670.70076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>340173.9321</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1197883.424</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>723</v>
+        <v>596</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>832</v>
+        <v>703</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>980</v>
+        <v>834</v>
       </c>
       <c r="F59" s="35" t="n">
+        <v>932</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>891</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>993</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>1058</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>985</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>1108</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>1193</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>1280</v>
+        <v>1071</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1370</v>
+        <v>1114</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>956</v>
+        <v>887</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>722</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>